--- a/Python/auc_p_value_matrix_svm.xlsx
+++ b/Python/auc_p_value_matrix_svm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rodrigo S. Hirama\Documentos\EACH\IC\Classification-of-mammography-images\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACA1596-DD89-4C6E-AE10-8649FA03E7AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BEDB83-6FF5-401D-A60F-3E7DC3F3B6F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -439,61 +439,61 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.226233498652296</v>
+        <v>0.19143739357900011</v>
       </c>
       <c r="D2">
-        <v>0.34201983425010279</v>
+        <v>0.48339825525465108</v>
       </c>
       <c r="E2">
-        <v>0.41684344048684119</v>
+        <v>0.4987644028776006</v>
       </c>
       <c r="F2">
-        <v>0.39078479932957971</v>
+        <v>0.32206657725923787</v>
       </c>
       <c r="G2">
-        <v>0.44917767680343368</v>
+        <v>0.40658231451882038</v>
       </c>
       <c r="H2">
-        <v>0.81778296053623889</v>
+        <v>0.90514020465272005</v>
       </c>
       <c r="I2">
-        <v>0.87166353975113564</v>
+        <v>0.98380140839374464</v>
       </c>
       <c r="J2">
-        <v>0.2426394722708142</v>
+        <v>0.20651211030859409</v>
       </c>
       <c r="K2">
-        <v>0.11209862496210771</v>
+        <v>6.5526107676644213E-2</v>
       </c>
       <c r="L2">
-        <v>3.2829151924828687E-2</v>
+        <v>1.0227015929242781E-2</v>
       </c>
       <c r="M2">
-        <v>1.5925841726217159E-2</v>
+        <v>6.6120959445479383E-3</v>
       </c>
       <c r="N2">
-        <v>1.359622394492452E-2</v>
+        <v>5.7538199343301474E-3</v>
       </c>
       <c r="O2">
-        <v>1.5925841726217159E-2</v>
+        <v>6.6120959445479383E-3</v>
       </c>
       <c r="P2">
-        <v>1.5925841726217159E-2</v>
+        <v>6.6120959445479383E-3</v>
       </c>
       <c r="Q2">
-        <v>1.130708696250568E-2</v>
+        <v>4.7779336424862758E-3</v>
       </c>
       <c r="R2">
-        <v>4.2336543123479902E-3</v>
+        <v>1.607410762556142E-3</v>
       </c>
       <c r="S2">
-        <v>2.8318408639330518E-3</v>
+        <v>7.4113887393219497E-4</v>
       </c>
       <c r="T2">
-        <v>5.4597957502102487E-2</v>
+        <v>2.2571104439967921E-2</v>
       </c>
       <c r="U2">
-        <v>5.2481753606775008E-3</v>
+        <v>2.1530236128834831E-3</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -501,64 +501,64 @@
         <v>2E-3</v>
       </c>
       <c r="B3">
-        <v>0.226233498652296</v>
+        <v>0.19143739357900011</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.83171399925175016</v>
+        <v>0.56231250432392632</v>
       </c>
       <c r="E3">
-        <v>0.70118330364833192</v>
+        <v>0.54303717318180245</v>
       </c>
       <c r="F3">
-        <v>4.5967045700409173E-2</v>
+        <v>2.747403926644397E-2</v>
       </c>
       <c r="G3">
-        <v>5.7471659193936549E-2</v>
+        <v>3.9044853397716343E-2</v>
       </c>
       <c r="H3">
-        <v>0.33627120153359041</v>
+        <v>0.24648346274569199</v>
       </c>
       <c r="I3">
-        <v>0.18795791693135791</v>
+        <v>0.19650879964844389</v>
       </c>
       <c r="J3">
-        <v>0.9578892641533161</v>
+        <v>0.9472967798679951</v>
       </c>
       <c r="K3">
-        <v>0.73963813877329787</v>
+        <v>0.63588531107839263</v>
       </c>
       <c r="L3">
-        <v>0.39152493883972761</v>
+        <v>0.25063769317109258</v>
       </c>
       <c r="M3">
-        <v>0.26422515260083901</v>
+        <v>0.19445476496372069</v>
       </c>
       <c r="N3">
-        <v>0.24158901720807591</v>
+        <v>0.17893657603742719</v>
       </c>
       <c r="O3">
-        <v>0.26422515260083901</v>
+        <v>0.19445476496372069</v>
       </c>
       <c r="P3">
-        <v>0.26422515260083901</v>
+        <v>0.19445476496372069</v>
       </c>
       <c r="Q3">
-        <v>0.2168001368688906</v>
+        <v>0.1611804439119969</v>
       </c>
       <c r="R3">
-        <v>0.1181929369214352</v>
+        <v>8.3111284024612042E-2</v>
       </c>
       <c r="S3">
-        <v>8.9263386616360157E-2</v>
+        <v>4.9695558390847931E-2</v>
       </c>
       <c r="T3">
-        <v>0.51670066052036356</v>
+        <v>0.37615580178847452</v>
       </c>
       <c r="U3">
-        <v>0.13048968134891159</v>
+        <v>9.4998412099371973E-2</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -566,64 +566,64 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="B4">
-        <v>0.34201983425010279</v>
+        <v>0.48339825525465108</v>
       </c>
       <c r="C4">
-        <v>0.83171399925175016</v>
+        <v>0.56231250432392632</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.87288914708998633</v>
+        <v>0.97887035475053741</v>
       </c>
       <c r="F4">
-        <v>8.641140526235927E-2</v>
+        <v>0.10601012899894589</v>
       </c>
       <c r="G4">
-        <v>0.1047572562962561</v>
+        <v>0.1414227516715072</v>
       </c>
       <c r="H4">
-        <v>0.47391442116232901</v>
+        <v>0.5695754276098639</v>
       </c>
       <c r="I4">
-        <v>0.28742724326897651</v>
+        <v>0.48314595437647112</v>
       </c>
       <c r="J4">
-        <v>0.87041162752260914</v>
+        <v>0.60067784934989543</v>
       </c>
       <c r="K4">
-        <v>0.58929622342720611</v>
+        <v>0.28526284376999372</v>
       </c>
       <c r="L4">
-        <v>0.29390441772937081</v>
+        <v>7.9820608430057047E-2</v>
       </c>
       <c r="M4">
-        <v>0.19267221733359319</v>
+        <v>5.7729639441473517E-2</v>
       </c>
       <c r="N4">
-        <v>0.17515531357745701</v>
+        <v>5.1984995283342723E-2</v>
       </c>
       <c r="O4">
-        <v>0.19267221733359319</v>
+        <v>5.7729639441473517E-2</v>
       </c>
       <c r="P4">
-        <v>0.19267221733359319</v>
+        <v>5.7729639441473517E-2</v>
       </c>
       <c r="Q4">
-        <v>0.15618688045662221</v>
+        <v>4.5440754370780698E-2</v>
       </c>
       <c r="R4">
-        <v>8.2663053315852164E-2</v>
+        <v>1.9926330920394589E-2</v>
       </c>
       <c r="S4">
-        <v>6.1842640144204042E-2</v>
+        <v>1.0759994117510141E-2</v>
       </c>
       <c r="T4">
-        <v>0.39671576439391421</v>
+        <v>0.1379295849473306</v>
       </c>
       <c r="U4">
-        <v>9.1957552550429852E-2</v>
+        <v>2.3994687684524681E-2</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -631,64 +631,64 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="B5">
-        <v>0.41684344048684119</v>
+        <v>0.4987644028776006</v>
       </c>
       <c r="C5">
-        <v>0.70118330364833192</v>
+        <v>0.54303717318180245</v>
       </c>
       <c r="D5">
-        <v>0.87288914708998633</v>
+        <v>0.97887035475053741</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.10787601650425301</v>
+        <v>0.110228935340527</v>
       </c>
       <c r="G5">
-        <v>0.1306132129190038</v>
+        <v>0.1469448235326877</v>
       </c>
       <c r="H5">
-        <v>0.56728373532825982</v>
+        <v>0.58630154094991593</v>
       </c>
       <c r="I5">
-        <v>0.35056045273232078</v>
+        <v>0.49815754607298418</v>
       </c>
       <c r="J5">
-        <v>0.73794734942820439</v>
+        <v>0.58055179479868424</v>
       </c>
       <c r="K5">
-        <v>0.46818328903996159</v>
+        <v>0.27122369674072228</v>
       </c>
       <c r="L5">
-        <v>0.21115627017607699</v>
+        <v>7.3996954575103024E-2</v>
       </c>
       <c r="M5">
-        <v>0.1305372638686951</v>
+        <v>5.3233119382755878E-2</v>
       </c>
       <c r="N5">
-        <v>0.1171806244373335</v>
+        <v>4.7856613466094988E-2</v>
       </c>
       <c r="O5">
-        <v>0.1305372638686951</v>
+        <v>5.3233119382755878E-2</v>
       </c>
       <c r="P5">
-        <v>0.1305372638686951</v>
+        <v>5.3233119382755878E-2</v>
       </c>
       <c r="Q5">
-        <v>0.1029941457296385</v>
+        <v>4.1733288147642197E-2</v>
       </c>
       <c r="R5">
-        <v>5.0603196305377372E-2</v>
+        <v>1.8066898545020499E-2</v>
       </c>
       <c r="S5">
-        <v>3.684119296272733E-2</v>
+        <v>9.6764043118675869E-3</v>
       </c>
       <c r="T5">
-        <v>0.29694481330419259</v>
+        <v>0.1292442394799517</v>
       </c>
       <c r="U5">
-        <v>5.740187430617677E-2</v>
+        <v>2.1853431848186462E-2</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -696,64 +696,64 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B6">
-        <v>0.39078479932957971</v>
+        <v>0.32206657725923787</v>
       </c>
       <c r="C6">
-        <v>4.5967045700409173E-2</v>
+        <v>2.747403926644397E-2</v>
       </c>
       <c r="D6">
-        <v>8.641140526235927E-2</v>
+        <v>0.10601012899894589</v>
       </c>
       <c r="E6">
-        <v>0.10787601650425301</v>
+        <v>0.110228935340527</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.92174180642887349</v>
+        <v>0.86907219108690015</v>
       </c>
       <c r="H6">
-        <v>0.29019426843906138</v>
+        <v>0.28278515947928551</v>
       </c>
       <c r="I6">
-        <v>0.5089573793968587</v>
+        <v>0.34754551317095578</v>
       </c>
       <c r="J6">
-        <v>4.9522016012020879E-2</v>
+        <v>2.9144415964082921E-2</v>
       </c>
       <c r="K6">
-        <v>1.6956289056675459E-2</v>
+        <v>5.8904586579914481E-3</v>
       </c>
       <c r="L6">
-        <v>3.4963120618178179E-3</v>
+        <v>5.1252251519784951E-4</v>
       </c>
       <c r="M6">
-        <v>1.3995686567785689E-3</v>
+        <v>3.0240983789944331E-4</v>
       </c>
       <c r="N6">
-        <v>1.1503915366335681E-3</v>
+        <v>2.5618067132894762E-4</v>
       </c>
       <c r="O6">
-        <v>1.3995686567785689E-3</v>
+        <v>3.0240983789944331E-4</v>
       </c>
       <c r="P6">
-        <v>1.3995686567785689E-3</v>
+        <v>3.0240983789944331E-4</v>
       </c>
       <c r="Q6">
-        <v>9.1959701788098605E-4</v>
+        <v>2.0325216078828081E-4</v>
       </c>
       <c r="R6">
-        <v>2.8696860193175202E-4</v>
+        <v>5.5418213429965193E-5</v>
       </c>
       <c r="S6">
-        <v>1.8411748969296719E-4</v>
+        <v>2.2970732946753792E-5</v>
       </c>
       <c r="T6">
-        <v>6.608901575596491E-3</v>
+        <v>1.438498183033239E-3</v>
       </c>
       <c r="U6">
-        <v>3.8558022940284151E-4</v>
+        <v>8.3073540876817166E-5</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -761,64 +761,64 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="B7">
-        <v>0.44917767680343368</v>
+        <v>0.40658231451882038</v>
       </c>
       <c r="C7">
-        <v>5.7471659193936549E-2</v>
+        <v>3.9044853397716343E-2</v>
       </c>
       <c r="D7">
-        <v>0.1047572562962561</v>
+        <v>0.1414227516715072</v>
       </c>
       <c r="E7">
-        <v>0.1306132129190038</v>
+        <v>0.1469448235326877</v>
       </c>
       <c r="F7">
-        <v>0.92174180642887349</v>
+        <v>0.86907219108690015</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.33735688313320072</v>
+        <v>0.35767125979823328</v>
       </c>
       <c r="I7">
-        <v>0.57265085749136968</v>
+        <v>0.43318393491987389</v>
       </c>
       <c r="J7">
-        <v>6.1920743639964651E-2</v>
+        <v>4.1606502317783838E-2</v>
       </c>
       <c r="K7">
-        <v>2.2097307450961671E-2</v>
+        <v>8.9779806375364576E-3</v>
       </c>
       <c r="L7">
-        <v>4.7811578637920599E-3</v>
+        <v>8.4705578326656141E-4</v>
       </c>
       <c r="M7">
-        <v>1.9666676022754431E-3</v>
+        <v>5.0554280837393582E-4</v>
       </c>
       <c r="N7">
-        <v>1.625220010436102E-3</v>
+        <v>4.2967250937883038E-4</v>
       </c>
       <c r="O7">
-        <v>1.9666676022754431E-3</v>
+        <v>5.0554280837393582E-4</v>
       </c>
       <c r="P7">
-        <v>1.9666676022754431E-3</v>
+        <v>5.0554280837393582E-4</v>
       </c>
       <c r="Q7">
-        <v>1.3063608768074031E-3</v>
+        <v>3.42944556431416E-4</v>
       </c>
       <c r="R7">
-        <v>4.1811306922102069E-4</v>
+        <v>9.5971180043165387E-5</v>
       </c>
       <c r="S7">
-        <v>2.6964903197144882E-4</v>
+        <v>4.0259191417244518E-5</v>
       </c>
       <c r="T7">
-        <v>8.8811843771255047E-3</v>
+        <v>2.3001587338010981E-3</v>
       </c>
       <c r="U7">
-        <v>5.5489399181023484E-4</v>
+        <v>1.4159115961100431E-4</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -826,64 +826,64 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="B8">
-        <v>0.81778296053623889</v>
+        <v>0.90514020465272005</v>
       </c>
       <c r="C8">
-        <v>0.33627120153359041</v>
+        <v>0.24648346274569199</v>
       </c>
       <c r="D8">
-        <v>0.47391442116232901</v>
+        <v>0.5695754276098639</v>
       </c>
       <c r="E8">
-        <v>0.56728373532825982</v>
+        <v>0.58630154094991593</v>
       </c>
       <c r="F8">
-        <v>0.29019426843906138</v>
+        <v>0.28278515947928551</v>
       </c>
       <c r="G8">
-        <v>0.33735688313320072</v>
+        <v>0.35767125979823328</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.70565080416753245</v>
+        <v>0.89229843919667351</v>
       </c>
       <c r="J8">
-        <v>0.35875834828640341</v>
+        <v>0.2655956293895323</v>
       </c>
       <c r="K8">
-        <v>0.1854767172224896</v>
+        <v>9.3935683794759847E-2</v>
       </c>
       <c r="L8">
-        <v>6.324617570359177E-2</v>
+        <v>1.731358890796619E-2</v>
       </c>
       <c r="M8">
-        <v>3.3481325412075658E-2</v>
+        <v>1.155659685014975E-2</v>
       </c>
       <c r="N8">
-        <v>2.910444140809143E-2</v>
+        <v>1.0154860469791759E-2</v>
       </c>
       <c r="O8">
-        <v>3.3481325412075658E-2</v>
+        <v>1.155659685014975E-2</v>
       </c>
       <c r="P8">
-        <v>3.3481325412075658E-2</v>
+        <v>1.155659685014975E-2</v>
       </c>
       <c r="Q8">
-        <v>2.4685052018104111E-2</v>
+        <v>8.5610730752840696E-3</v>
       </c>
       <c r="R8">
-        <v>1.0174341313471979E-2</v>
+        <v>3.111914418597231E-3</v>
       </c>
       <c r="S8">
-        <v>6.9992748912840576E-3</v>
+        <v>1.501596892191045E-3</v>
       </c>
       <c r="T8">
-        <v>9.9179860028705408E-2</v>
+        <v>3.5585181505743448E-2</v>
       </c>
       <c r="U8">
-        <v>1.2183509886971439E-2</v>
+        <v>4.0291439433064562E-3</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -891,64 +891,64 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="B9">
-        <v>0.87166353975113564</v>
+        <v>0.98380140839374464</v>
       </c>
       <c r="C9">
-        <v>0.18795791693135791</v>
+        <v>0.19650879964844389</v>
       </c>
       <c r="D9">
-        <v>0.28742724326897651</v>
+        <v>0.48314595437647112</v>
       </c>
       <c r="E9">
-        <v>0.35056045273232078</v>
+        <v>0.49815754607298418</v>
       </c>
       <c r="F9">
-        <v>0.5089573793968587</v>
+        <v>0.34754551317095578</v>
       </c>
       <c r="G9">
-        <v>0.57265085749136968</v>
+        <v>0.43318393491987389</v>
       </c>
       <c r="H9">
-        <v>0.70565080416753245</v>
+        <v>0.89229843919667351</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.20153857556145199</v>
+        <v>0.21182491093059311</v>
       </c>
       <c r="K9">
-        <v>9.2461111709483651E-2</v>
+        <v>7.0012950450339256E-2</v>
       </c>
       <c r="L9">
-        <v>2.7251871872339149E-2</v>
+        <v>1.176974119863796E-2</v>
       </c>
       <c r="M9">
-        <v>1.334700721279258E-2</v>
+        <v>7.7287270537436357E-3</v>
       </c>
       <c r="N9">
-        <v>1.1423306990176329E-2</v>
+        <v>6.7579503110564779E-3</v>
       </c>
       <c r="O9">
-        <v>1.334700721279258E-2</v>
+        <v>7.7287270537436357E-3</v>
       </c>
       <c r="P9">
-        <v>1.334700721279258E-2</v>
+        <v>7.7287270537436357E-3</v>
       </c>
       <c r="Q9">
-        <v>9.5285416043970964E-3</v>
+        <v>5.6540165121837941E-3</v>
       </c>
       <c r="R9">
-        <v>3.630880083602679E-3</v>
+        <v>1.9788821102686028E-3</v>
       </c>
       <c r="S9">
-        <v>2.4444044768233732E-3</v>
+        <v>9.3467117694320812E-4</v>
       </c>
       <c r="T9">
-        <v>4.5122649309712E-2</v>
+        <v>2.5128095266366241E-2</v>
       </c>
       <c r="U9">
-        <v>4.4743646419868567E-3</v>
+        <v>2.6049757632176361E-3</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -956,64 +956,64 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="B10">
-        <v>0.2426394722708142</v>
+        <v>0.20651211030859409</v>
       </c>
       <c r="C10">
-        <v>0.9578892641533161</v>
+        <v>0.9472967798679951</v>
       </c>
       <c r="D10">
-        <v>0.87041162752260914</v>
+        <v>0.60067784934989543</v>
       </c>
       <c r="E10">
-        <v>0.73794734942820439</v>
+        <v>0.58055179479868424</v>
       </c>
       <c r="F10">
-        <v>4.9522016012020879E-2</v>
+        <v>2.9144415964082921E-2</v>
       </c>
       <c r="G10">
-        <v>6.1920743639964651E-2</v>
+        <v>4.1606502317783838E-2</v>
       </c>
       <c r="H10">
-        <v>0.35875834828640341</v>
+        <v>0.2655956293895323</v>
       </c>
       <c r="I10">
-        <v>0.20153857556145199</v>
+        <v>0.21182491093059311</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.69681403782443374</v>
+        <v>0.58251614837453802</v>
       </c>
       <c r="L10">
-        <v>0.35805275387629543</v>
+        <v>0.2157435732732732</v>
       </c>
       <c r="M10">
-        <v>0.23744290463844239</v>
+        <v>0.16493635423213721</v>
       </c>
       <c r="N10">
-        <v>0.21627658977695091</v>
+        <v>0.1510673347561568</v>
       </c>
       <c r="O10">
-        <v>0.23744290463844239</v>
+        <v>0.16493635423213721</v>
       </c>
       <c r="P10">
-        <v>0.23744290463844239</v>
+        <v>0.16493635423213721</v>
       </c>
       <c r="Q10">
-        <v>0.1932344309954567</v>
+        <v>0.1352162482610077</v>
       </c>
       <c r="R10">
-        <v>0.1029596764139321</v>
+        <v>6.7222496333857421E-2</v>
       </c>
       <c r="S10">
-        <v>7.7085491331650435E-2</v>
+        <v>3.920539142237494E-2</v>
       </c>
       <c r="T10">
-        <v>0.47836769180907579</v>
+        <v>0.33261587860874658</v>
       </c>
       <c r="U10">
-        <v>0.11431063350411021</v>
+        <v>7.7673965087193889E-2</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1021,64 +1021,64 @@
         <v>0.01</v>
       </c>
       <c r="B11">
-        <v>0.11209862496210771</v>
+        <v>6.5526107676644213E-2</v>
       </c>
       <c r="C11">
-        <v>0.73963813877329787</v>
+        <v>0.63588531107839263</v>
       </c>
       <c r="D11">
-        <v>0.58929622342720611</v>
+        <v>0.28526284376999372</v>
       </c>
       <c r="E11">
-        <v>0.46818328903996159</v>
+        <v>0.27122369674072228</v>
       </c>
       <c r="F11">
-        <v>1.6956289056675459E-2</v>
+        <v>5.8904586579914481E-3</v>
       </c>
       <c r="G11">
-        <v>2.2097307450961671E-2</v>
+        <v>8.9779806375364576E-3</v>
       </c>
       <c r="H11">
-        <v>0.1854767172224896</v>
+        <v>9.3935683794759847E-2</v>
       </c>
       <c r="I11">
-        <v>9.2461111709483651E-2</v>
+        <v>7.0012950450339256E-2</v>
       </c>
       <c r="J11">
-        <v>0.69681403782443374</v>
+        <v>0.58251614837453802</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.59149365559613543</v>
+        <v>0.49177299896134302</v>
       </c>
       <c r="M11">
-        <v>0.42323984390009928</v>
+        <v>0.39975707423895351</v>
       </c>
       <c r="N11">
-        <v>0.39171190908893588</v>
+        <v>0.37319182664291511</v>
       </c>
       <c r="O11">
-        <v>0.42323984390009928</v>
+        <v>0.39975707423895351</v>
       </c>
       <c r="P11">
-        <v>0.42323984390009928</v>
+        <v>0.39975707423895351</v>
       </c>
       <c r="Q11">
-        <v>0.35639928111834118</v>
+        <v>0.34266147530849761</v>
       </c>
       <c r="R11">
-        <v>0.2079871102655132</v>
+        <v>0.19620777592736141</v>
       </c>
       <c r="S11">
-        <v>0.16093939136218649</v>
+        <v>0.12539332342946111</v>
       </c>
       <c r="T11">
-        <v>0.74705226336301445</v>
+        <v>0.67455461410310169</v>
       </c>
       <c r="U11">
-        <v>0.2259621737085877</v>
+        <v>0.21779153918655031</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1086,64 +1086,64 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="B12">
-        <v>3.2829151924828687E-2</v>
+        <v>1.0227015929242781E-2</v>
       </c>
       <c r="C12">
-        <v>0.39152493883972761</v>
+        <v>0.25063769317109258</v>
       </c>
       <c r="D12">
-        <v>0.29390441772937081</v>
+        <v>7.9820608430057047E-2</v>
       </c>
       <c r="E12">
-        <v>0.21115627017607699</v>
+        <v>7.3996954575103024E-2</v>
       </c>
       <c r="F12">
-        <v>3.4963120618178179E-3</v>
+        <v>5.1252251519784951E-4</v>
       </c>
       <c r="G12">
-        <v>4.7811578637920599E-3</v>
+        <v>8.4705578326656141E-4</v>
       </c>
       <c r="H12">
-        <v>6.324617570359177E-2</v>
+        <v>1.731358890796619E-2</v>
       </c>
       <c r="I12">
-        <v>2.7251871872339149E-2</v>
+        <v>1.176974119863796E-2</v>
       </c>
       <c r="J12">
-        <v>0.35805275387629543</v>
+        <v>0.2157435732732732</v>
       </c>
       <c r="K12">
-        <v>0.59149365559613543</v>
+        <v>0.49177299896134302</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.79349148025116201</v>
+        <v>0.87322314620743158</v>
       </c>
       <c r="N12">
-        <v>0.7509998035025709</v>
+        <v>0.83384971243100381</v>
       </c>
       <c r="O12">
-        <v>0.79349148025116201</v>
+        <v>0.87322314620743158</v>
       </c>
       <c r="P12">
-        <v>0.79349148025116201</v>
+        <v>0.87322314620743158</v>
       </c>
       <c r="Q12">
-        <v>0.70136456618016974</v>
+        <v>0.78817996503853494</v>
       </c>
       <c r="R12">
-        <v>0.46862973788210832</v>
+        <v>0.53419355156385717</v>
       </c>
       <c r="S12">
-        <v>0.38252377166202273</v>
+        <v>0.38302406021700403</v>
       </c>
       <c r="T12">
-        <v>0.82918655393467611</v>
+        <v>0.79017421296936108</v>
       </c>
       <c r="U12">
-        <v>0.49513653394245088</v>
+        <v>0.5694848597934804</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1151,43 +1151,43 @@
         <v>1.2E-2</v>
       </c>
       <c r="B13">
-        <v>1.5925841726217159E-2</v>
+        <v>6.6120959445479383E-3</v>
       </c>
       <c r="C13">
-        <v>0.26422515260083901</v>
+        <v>0.19445476496372069</v>
       </c>
       <c r="D13">
-        <v>0.19267221733359319</v>
+        <v>5.7729639441473517E-2</v>
       </c>
       <c r="E13">
-        <v>0.1305372638686951</v>
+        <v>5.3233119382755878E-2</v>
       </c>
       <c r="F13">
-        <v>1.3995686567785689E-3</v>
+        <v>3.0240983789944331E-4</v>
       </c>
       <c r="G13">
-        <v>1.9666676022754431E-3</v>
+        <v>5.0554280837393582E-4</v>
       </c>
       <c r="H13">
-        <v>3.3481325412075658E-2</v>
+        <v>1.155659685014975E-2</v>
       </c>
       <c r="I13">
-        <v>1.334700721279258E-2</v>
+        <v>7.7287270537436357E-3</v>
       </c>
       <c r="J13">
-        <v>0.23744290463844239</v>
+        <v>0.16493635423213721</v>
       </c>
       <c r="K13">
-        <v>0.42323984390009928</v>
+        <v>0.39975707423895351</v>
       </c>
       <c r="L13">
-        <v>0.79349148025116201</v>
+        <v>0.87322314620743158</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.9555784246325022</v>
+        <v>0.95992533700276006</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1196,19 +1196,19 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>0.90262547938782056</v>
+        <v>0.91332415620487262</v>
       </c>
       <c r="R13">
-        <v>0.64045640929134628</v>
+        <v>0.64442622934175453</v>
       </c>
       <c r="S13">
-        <v>0.53598308722763</v>
+        <v>0.47579032233228008</v>
       </c>
       <c r="T13">
-        <v>0.63177152070974019</v>
+        <v>0.67202725141673558</v>
       </c>
       <c r="U13">
-        <v>0.66935616383125307</v>
+        <v>0.68119003489272334</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1216,64 +1216,64 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="B14">
-        <v>1.359622394492452E-2</v>
+        <v>5.7538199343301474E-3</v>
       </c>
       <c r="C14">
-        <v>0.24158901720807591</v>
+        <v>0.17893657603742719</v>
       </c>
       <c r="D14">
-        <v>0.17515531357745701</v>
+        <v>5.1984995283342723E-2</v>
       </c>
       <c r="E14">
-        <v>0.1171806244373335</v>
+        <v>4.7856613466094988E-2</v>
       </c>
       <c r="F14">
-        <v>1.1503915366335681E-3</v>
+        <v>2.5618067132894762E-4</v>
       </c>
       <c r="G14">
-        <v>1.625220010436102E-3</v>
+        <v>4.2967250937883038E-4</v>
       </c>
       <c r="H14">
-        <v>2.910444140809143E-2</v>
+        <v>1.0154860469791759E-2</v>
       </c>
       <c r="I14">
-        <v>1.1423306990176329E-2</v>
+        <v>6.7579503110564779E-3</v>
       </c>
       <c r="J14">
-        <v>0.21627658977695091</v>
+        <v>0.1510673347561568</v>
       </c>
       <c r="K14">
-        <v>0.39171190908893588</v>
+        <v>0.37319182664291511</v>
       </c>
       <c r="L14">
-        <v>0.7509998035025709</v>
+        <v>0.83384971243100381</v>
       </c>
       <c r="M14">
-        <v>0.9555784246325022</v>
+        <v>0.95992533700276006</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.9555784246325022</v>
+        <v>0.95992533700276006</v>
       </c>
       <c r="P14">
-        <v>0.9555784246325022</v>
+        <v>0.95992533700276006</v>
       </c>
       <c r="Q14">
-        <v>0.94681672532735339</v>
+        <v>0.95336073933627807</v>
       </c>
       <c r="R14">
-        <v>0.6803709578532342</v>
+        <v>0.68108875326994256</v>
       </c>
       <c r="S14">
-        <v>0.57247266649191064</v>
+        <v>0.50749274428783231</v>
       </c>
       <c r="T14">
-        <v>0.59264761163035806</v>
+        <v>0.63636616359549847</v>
       </c>
       <c r="U14">
-        <v>0.70952562326871327</v>
+        <v>0.71811825118608796</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1281,43 +1281,43 @@
         <v>1.4E-2</v>
       </c>
       <c r="B15">
-        <v>1.5925841726217159E-2</v>
+        <v>6.6120959445479383E-3</v>
       </c>
       <c r="C15">
-        <v>0.26422515260083901</v>
+        <v>0.19445476496372069</v>
       </c>
       <c r="D15">
-        <v>0.19267221733359319</v>
+        <v>5.7729639441473517E-2</v>
       </c>
       <c r="E15">
-        <v>0.1305372638686951</v>
+        <v>5.3233119382755878E-2</v>
       </c>
       <c r="F15">
-        <v>1.3995686567785689E-3</v>
+        <v>3.0240983789944331E-4</v>
       </c>
       <c r="G15">
-        <v>1.9666676022754431E-3</v>
+        <v>5.0554280837393582E-4</v>
       </c>
       <c r="H15">
-        <v>3.3481325412075658E-2</v>
+        <v>1.155659685014975E-2</v>
       </c>
       <c r="I15">
-        <v>1.334700721279258E-2</v>
+        <v>7.7287270537436357E-3</v>
       </c>
       <c r="J15">
-        <v>0.23744290463844239</v>
+        <v>0.16493635423213721</v>
       </c>
       <c r="K15">
-        <v>0.42323984390009928</v>
+        <v>0.39975707423895351</v>
       </c>
       <c r="L15">
-        <v>0.79349148025116201</v>
+        <v>0.87322314620743158</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
       <c r="N15">
-        <v>0.9555784246325022</v>
+        <v>0.95992533700276006</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1326,19 +1326,19 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>0.90262547938782056</v>
+        <v>0.91332415620487262</v>
       </c>
       <c r="R15">
-        <v>0.64045640929134628</v>
+        <v>0.64442622934175453</v>
       </c>
       <c r="S15">
-        <v>0.53598308722763</v>
+        <v>0.47579032233228008</v>
       </c>
       <c r="T15">
-        <v>0.63177152070974019</v>
+        <v>0.67202725141673558</v>
       </c>
       <c r="U15">
-        <v>0.66935616383125307</v>
+        <v>0.68119003489272334</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1346,43 +1346,43 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="B16">
-        <v>1.5925841726217159E-2</v>
+        <v>6.6120959445479383E-3</v>
       </c>
       <c r="C16">
-        <v>0.26422515260083901</v>
+        <v>0.19445476496372069</v>
       </c>
       <c r="D16">
-        <v>0.19267221733359319</v>
+        <v>5.7729639441473517E-2</v>
       </c>
       <c r="E16">
-        <v>0.1305372638686951</v>
+        <v>5.3233119382755878E-2</v>
       </c>
       <c r="F16">
-        <v>1.3995686567785689E-3</v>
+        <v>3.0240983789944331E-4</v>
       </c>
       <c r="G16">
-        <v>1.9666676022754431E-3</v>
+        <v>5.0554280837393582E-4</v>
       </c>
       <c r="H16">
-        <v>3.3481325412075658E-2</v>
+        <v>1.155659685014975E-2</v>
       </c>
       <c r="I16">
-        <v>1.334700721279258E-2</v>
+        <v>7.7287270537436357E-3</v>
       </c>
       <c r="J16">
-        <v>0.23744290463844239</v>
+        <v>0.16493635423213721</v>
       </c>
       <c r="K16">
-        <v>0.42323984390009928</v>
+        <v>0.39975707423895351</v>
       </c>
       <c r="L16">
-        <v>0.79349148025116201</v>
+        <v>0.87322314620743158</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16">
-        <v>0.9555784246325022</v>
+        <v>0.95992533700276006</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1391,19 +1391,19 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0.90262547938782056</v>
+        <v>0.91332415620487262</v>
       </c>
       <c r="R16">
-        <v>0.64045640929134628</v>
+        <v>0.64442622934175453</v>
       </c>
       <c r="S16">
-        <v>0.53598308722763</v>
+        <v>0.47579032233228008</v>
       </c>
       <c r="T16">
-        <v>0.63177152070974019</v>
+        <v>0.67202725141673558</v>
       </c>
       <c r="U16">
-        <v>0.66935616383125307</v>
+        <v>0.68119003489272334</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -1411,64 +1411,64 @@
         <v>1.6E-2</v>
       </c>
       <c r="B17">
-        <v>1.130708696250568E-2</v>
+        <v>4.7779336424862758E-3</v>
       </c>
       <c r="C17">
-        <v>0.2168001368688906</v>
+        <v>0.1611804439119969</v>
       </c>
       <c r="D17">
-        <v>0.15618688045662221</v>
+        <v>4.5440754370780698E-2</v>
       </c>
       <c r="E17">
-        <v>0.1029941457296385</v>
+        <v>4.1733288147642197E-2</v>
       </c>
       <c r="F17">
-        <v>9.1959701788098605E-4</v>
+        <v>2.0325216078828081E-4</v>
       </c>
       <c r="G17">
-        <v>1.3063608768074031E-3</v>
+        <v>3.42944556431416E-4</v>
       </c>
       <c r="H17">
-        <v>2.4685052018104111E-2</v>
+        <v>8.5610730752840696E-3</v>
       </c>
       <c r="I17">
-        <v>9.5285416043970964E-3</v>
+        <v>5.6540165121837941E-3</v>
       </c>
       <c r="J17">
-        <v>0.1932344309954567</v>
+        <v>0.1352162482610077</v>
       </c>
       <c r="K17">
-        <v>0.35639928111834118</v>
+        <v>0.34266147530849761</v>
       </c>
       <c r="L17">
-        <v>0.70136456618016974</v>
+        <v>0.78817996503853494</v>
       </c>
       <c r="M17">
-        <v>0.90262547938782056</v>
+        <v>0.91332415620487262</v>
       </c>
       <c r="N17">
-        <v>0.94681672532735339</v>
+        <v>0.95336073933627807</v>
       </c>
       <c r="O17">
-        <v>0.90262547938782056</v>
+        <v>0.91332415620487262</v>
       </c>
       <c r="P17">
-        <v>0.90262547938782056</v>
+        <v>0.91332415620487262</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>0.72970474511794969</v>
+        <v>0.72405369517780294</v>
       </c>
       <c r="S17">
-        <v>0.61808828703944363</v>
+        <v>0.54480907636501708</v>
       </c>
       <c r="T17">
-        <v>0.54772001343781818</v>
+        <v>0.59516022709306404</v>
       </c>
       <c r="U17">
-        <v>0.75901095695266874</v>
+        <v>0.7613561940436171</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -1476,64 +1476,64 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="B18">
-        <v>4.2336543123479902E-3</v>
+        <v>1.607410762556142E-3</v>
       </c>
       <c r="C18">
-        <v>0.1181929369214352</v>
+        <v>8.3111284024612042E-2</v>
       </c>
       <c r="D18">
-        <v>8.2663053315852164E-2</v>
+        <v>1.9926330920394589E-2</v>
       </c>
       <c r="E18">
-        <v>5.0603196305377372E-2</v>
+        <v>1.8066898545020499E-2</v>
       </c>
       <c r="F18">
-        <v>2.8696860193175202E-4</v>
+        <v>5.5418213429965193E-5</v>
       </c>
       <c r="G18">
-        <v>4.1811306922102069E-4</v>
+        <v>9.5971180043165387E-5</v>
       </c>
       <c r="H18">
-        <v>1.0174341313471979E-2</v>
+        <v>3.111914418597231E-3</v>
       </c>
       <c r="I18">
-        <v>3.630880083602679E-3</v>
+        <v>1.9788821102686028E-3</v>
       </c>
       <c r="J18">
-        <v>0.1029596764139321</v>
+        <v>6.7222496333857421E-2</v>
       </c>
       <c r="K18">
-        <v>0.2079871102655132</v>
+        <v>0.19620777592736141</v>
       </c>
       <c r="L18">
-        <v>0.46862973788210832</v>
+        <v>0.53419355156385717</v>
       </c>
       <c r="M18">
-        <v>0.64045640929134628</v>
+        <v>0.64442622934175453</v>
       </c>
       <c r="N18">
-        <v>0.6803709578532342</v>
+        <v>0.68108875326994256</v>
       </c>
       <c r="O18">
-        <v>0.64045640929134628</v>
+        <v>0.64442622934175453</v>
       </c>
       <c r="P18">
-        <v>0.64045640929134628</v>
+        <v>0.64442622934175453</v>
       </c>
       <c r="Q18">
-        <v>0.72970474511794969</v>
+        <v>0.72405369517780294</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0.87646258617170358</v>
+        <v>0.79896066628798146</v>
       </c>
       <c r="T18">
-        <v>0.34639160243114009</v>
+        <v>0.37889748938887341</v>
       </c>
       <c r="U18">
-        <v>0.97215608209777959</v>
+        <v>0.96415733553891325</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -1541,64 +1541,64 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="B19">
-        <v>2.8318408639330518E-3</v>
+        <v>7.4113887393219497E-4</v>
       </c>
       <c r="C19">
-        <v>8.9263386616360157E-2</v>
+        <v>4.9695558390847931E-2</v>
       </c>
       <c r="D19">
-        <v>6.1842640144204042E-2</v>
+        <v>1.0759994117510141E-2</v>
       </c>
       <c r="E19">
-        <v>3.684119296272733E-2</v>
+        <v>9.6764043118675869E-3</v>
       </c>
       <c r="F19">
-        <v>1.8411748969296719E-4</v>
+        <v>2.2970732946753792E-5</v>
       </c>
       <c r="G19">
-        <v>2.6964903197144882E-4</v>
+        <v>4.0259191417244518E-5</v>
       </c>
       <c r="H19">
-        <v>6.9992748912840576E-3</v>
+        <v>1.501596892191045E-3</v>
       </c>
       <c r="I19">
-        <v>2.4444044768233732E-3</v>
+        <v>9.3467117694320812E-4</v>
       </c>
       <c r="J19">
-        <v>7.7085491331650435E-2</v>
+        <v>3.920539142237494E-2</v>
       </c>
       <c r="K19">
-        <v>0.16093939136218649</v>
+        <v>0.12539332342946111</v>
       </c>
       <c r="L19">
-        <v>0.38252377166202273</v>
+        <v>0.38302406021700403</v>
       </c>
       <c r="M19">
-        <v>0.53598308722763</v>
+        <v>0.47579032233228008</v>
       </c>
       <c r="N19">
-        <v>0.57247266649191064</v>
+        <v>0.50749274428783231</v>
       </c>
       <c r="O19">
-        <v>0.53598308722763</v>
+        <v>0.47579032233228008</v>
       </c>
       <c r="P19">
-        <v>0.53598308722763</v>
+        <v>0.47579032233228008</v>
       </c>
       <c r="Q19">
-        <v>0.61808828703944363</v>
+        <v>0.54480907636501708</v>
       </c>
       <c r="R19">
-        <v>0.87646258617170358</v>
+        <v>0.79896066628798146</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>0.27649751799573691</v>
+        <v>0.26014310027967003</v>
       </c>
       <c r="U19">
-        <v>0.85050317811872145</v>
+        <v>0.76698629674782393</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -1606,64 +1606,64 @@
         <v>1.9E-2</v>
       </c>
       <c r="B20">
-        <v>5.4597957502102487E-2</v>
+        <v>2.2571104439967921E-2</v>
       </c>
       <c r="C20">
-        <v>0.51670066052036356</v>
+        <v>0.37615580178847452</v>
       </c>
       <c r="D20">
-        <v>0.39671576439391421</v>
+        <v>0.1379295849473306</v>
       </c>
       <c r="E20">
-        <v>0.29694481330419259</v>
+        <v>0.1292442394799517</v>
       </c>
       <c r="F20">
-        <v>6.608901575596491E-3</v>
+        <v>1.438498183033239E-3</v>
       </c>
       <c r="G20">
-        <v>8.8811843771255047E-3</v>
+        <v>2.3001587338010981E-3</v>
       </c>
       <c r="H20">
-        <v>9.9179860028705408E-2</v>
+        <v>3.5585181505743448E-2</v>
       </c>
       <c r="I20">
-        <v>4.5122649309712E-2</v>
+        <v>2.5128095266366241E-2</v>
       </c>
       <c r="J20">
-        <v>0.47836769180907579</v>
+        <v>0.33261587860874658</v>
       </c>
       <c r="K20">
-        <v>0.74705226336301445</v>
+        <v>0.67455461410310169</v>
       </c>
       <c r="L20">
-        <v>0.82918655393467611</v>
+        <v>0.79017421296936108</v>
       </c>
       <c r="M20">
-        <v>0.63177152070974019</v>
+        <v>0.67202725141673558</v>
       </c>
       <c r="N20">
-        <v>0.59264761163035806</v>
+        <v>0.63636616359549847</v>
       </c>
       <c r="O20">
-        <v>0.63177152070974019</v>
+        <v>0.67202725141673558</v>
       </c>
       <c r="P20">
-        <v>0.63177152070974019</v>
+        <v>0.67202725141673558</v>
       </c>
       <c r="Q20">
-        <v>0.54772001343781818</v>
+        <v>0.59516022709306404</v>
       </c>
       <c r="R20">
-        <v>0.34639160243114009</v>
+        <v>0.37889748938887341</v>
       </c>
       <c r="S20">
-        <v>0.27649751799573691</v>
+        <v>0.26014310027967003</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>0.36992916846732088</v>
+        <v>0.40966981530064311</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -1671,61 +1671,61 @@
         <v>0.02</v>
       </c>
       <c r="B21">
-        <v>5.2481753606775008E-3</v>
+        <v>2.1530236128834831E-3</v>
       </c>
       <c r="C21">
-        <v>0.13048968134891159</v>
+        <v>9.4998412099371973E-2</v>
       </c>
       <c r="D21">
-        <v>9.1957552550429852E-2</v>
+        <v>2.3994687684524681E-2</v>
       </c>
       <c r="E21">
-        <v>5.740187430617677E-2</v>
+        <v>2.1853431848186462E-2</v>
       </c>
       <c r="F21">
-        <v>3.8558022940284151E-4</v>
+        <v>8.3073540876817166E-5</v>
       </c>
       <c r="G21">
-        <v>5.5489399181023484E-4</v>
+        <v>1.4159115961100431E-4</v>
       </c>
       <c r="H21">
-        <v>1.2183509886971439E-2</v>
+        <v>4.0291439433064562E-3</v>
       </c>
       <c r="I21">
-        <v>4.4743646419868567E-3</v>
+        <v>2.6049757632176361E-3</v>
       </c>
       <c r="J21">
-        <v>0.11431063350411021</v>
+        <v>7.7673965087193889E-2</v>
       </c>
       <c r="K21">
-        <v>0.2259621737085877</v>
+        <v>0.21779153918655031</v>
       </c>
       <c r="L21">
-        <v>0.49513653394245088</v>
+        <v>0.5694848597934804</v>
       </c>
       <c r="M21">
-        <v>0.66935616383125307</v>
+        <v>0.68119003489272334</v>
       </c>
       <c r="N21">
-        <v>0.70952562326871327</v>
+        <v>0.71811825118608796</v>
       </c>
       <c r="O21">
-        <v>0.66935616383125307</v>
+        <v>0.68119003489272334</v>
       </c>
       <c r="P21">
-        <v>0.66935616383125307</v>
+        <v>0.68119003489272334</v>
       </c>
       <c r="Q21">
-        <v>0.75901095695266874</v>
+        <v>0.7613561940436171</v>
       </c>
       <c r="R21">
-        <v>0.97215608209777959</v>
+        <v>0.96415733553891325</v>
       </c>
       <c r="S21">
-        <v>0.85050317811872145</v>
+        <v>0.76698629674782393</v>
       </c>
       <c r="T21">
-        <v>0.36992916846732088</v>
+        <v>0.40966981530064311</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -1733,22 +1733,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:U21">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
+        <color theme="5"/>
         <color theme="0"/>
-        <color theme="5"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
